--- a/medicine/Psychotrope/Sacy_(cépage)/Sacy_(cépage).xlsx
+++ b/medicine/Psychotrope/Sacy_(cépage)/Sacy_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sacy_(c%C3%A9page)</t>
+          <t>Sacy_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sacy, ou tressallier, est un cépage français de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sacy_(c%C3%A9page)</t>
+          <t>Sacy_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Le sacy aurait été rapporté au XIIIe siècle par les moines de l'abbaye de Reigny, près de Vermenton dans l'Yonne (Sacy étant un village à 6 kilomètres de l'abbaye). Il était largement cultivé dans ce département, puisque les cultivateurs s'inquiétèrent régulièrement de sa prolifération et allèrent jusqu'à demander son interdiction en 1782. Il fut également cultivé en Franche-Comté. Son déclin a réellement commencé avec le phylloxéra.
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sacy aurait été rapporté au XIIIe siècle par les moines de l'abbaye de Reigny, près de Vermenton dans l'Yonne (Sacy étant un village à 6 kilomètres de l'abbaye). Il était largement cultivé dans ce département, puisque les cultivateurs s'inquiétèrent régulièrement de sa prolifération et allèrent jusqu'à demander son interdiction en 1782. Il fut également cultivé en Franche-Comté. Son déclin a réellement commencé avec le phylloxéra.
 En 1999 des chercheurs de l'Université de la Californie à Davis ont soumis 322 échantillons de vigne à des analyses génétiques poussées. En tout, 16 cépages, dont le sacy, sont le résultat de croisements entre le Gouais blanc et le Pinot. Il s'agit de l'aligoté, de l'aubin vert, de l'auxerrois, du bachet noir, du beaunoir, du chardonnay, du dameron, du franc noir de la Haute-Saône, du gamay blanc Gloriod, du gamay, du knipperlé, du melon de Bourgogne, du peurion, du romorantin, du roublot et du sacy.
-Répartition géographique
-Le sacy est cultivé en Bourgogne. Il est identique au tressalier du département de l'Allier. Il n'est plus autorisé que dans les appellations crémant-de-bourgogne et Bourgogne Grand Ordinaire ainsi que dans le vin Saint-pourçain (AOC).
-Sa surface est passée de 655 ha en 1958 à 80 ha en 1994.
-Génétique
-Les prospections menées dans l'Allier ont donné une collection dans laquelle trois clones ont été sélectionnés et agréés. Leurs caractéristiques donnent des vins dans le type du cépage[évasif] avec une production légèrement plus faible[précision nécessaire]. Ils ne sont que très peu multipliés.
 </t>
         </is>
       </c>
@@ -532,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sacy_(c%C3%A9page)</t>
+          <t>Sacy_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractères ampélographiques</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'extrémité du jeune rameau est cotonneuse et les jeunes feuilles vertes à reflets bronzés. Le rameau porte des entre-nœuds rayés de rouge. Les feuilles adultes sont entières ou quinquelobées, avec un sinus pétiolaire peu ouvert, des dents moyennes droites, un limbe involuté, bullé. 
-Les grappes et les baies du sacy sont petites. La grappe est tronconique et ailée. Les baies sont arrondies et de petite taille.
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sacy est cultivé en Bourgogne. Il est identique au tressalier du département de l'Allier. Il n'est plus autorisé que dans les appellations crémant-de-bourgogne et Bourgogne Grand Ordinaire ainsi que dans le vin Saint-pourçain (AOC).
+Sa surface est passée de 655 ha en 1958 à 80 ha en 1994.
 </t>
         </is>
       </c>
@@ -564,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sacy_(c%C3%A9page)</t>
+          <t>Sacy_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,17 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aptitudes</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-La maturité est de deuxième époque tardive : 20 jours après le chasselas. C'est un cépage vigoureux et fertile. Il peut être conduit en taille courte, bien que les usages fassent qu'il le soit en taille longue.
-Sensibilité aux maladies
-Il ne présente pas de sensibilité particulière.
-Potentiel technologique
-Le sacy donne des vins légers, d'acidité bonne et de faible degré. Il est souvent utilisé pour l'élaboration de vins effervescents, mais peut aussi donner de bons vins tranquilles.
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prospections menées dans l'Allier ont donné une collection dans laquelle trois clones ont été sélectionnés et agréés. Leurs caractéristiques donnent des vins dans le type du cépage[évasif] avec une production légèrement plus faible[précision nécessaire]. Ils ne sont que très peu multipliés.
 </t>
         </is>
       </c>
@@ -600,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sacy_(c%C3%A9page)</t>
+          <t>Sacy_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,12 +634,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Synonymes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sacy est connu sous les noms de aligoté vert, blanc de Pays, blanc moulin, blanc vert, fairené, fariné, farinier blanc, ferné, fernet, ferney, gros blanc, menu blanc, peut blanc, pivoine, plant de Sacy, plant d´Essert, sassy, souche, weissklemmer.
+          <t>Caractères ampélographiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extrémité du jeune rameau est cotonneuse et les jeunes feuilles vertes à reflets bronzés. Le rameau porte des entre-nœuds rayés de rouge. Les feuilles adultes sont entières ou quinquelobées, avec un sinus pétiolaire peu ouvert, des dents moyennes droites, un limbe involuté, bullé. 
+Les grappes et les baies du sacy sont petites. La grappe est tronconique et ailée. Les baies sont arrondies et de petite taille.
 </t>
         </is>
       </c>
@@ -631,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sacy_(c%C3%A9page)</t>
+          <t>Sacy_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,10 +668,156 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maturité est de deuxième époque tardive : 20 jours après le chasselas. C'est un cépage vigoureux et fertile. Il peut être conduit en taille courte, bien que les usages fassent qu'il le soit en taille longue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sacy_(cépage)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sacy_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne présente pas de sensibilité particulière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sacy_(cépage)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sacy_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Potentiel technologique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sacy donne des vins légers, d'acidité bonne et de faible degré. Il est souvent utilisé pour l'élaboration de vins effervescents, mais peut aussi donner de bons vins tranquilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sacy_(cépage)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sacy_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sacy est connu sous les noms de aligoté vert, blanc de Pays, blanc moulin, blanc vert, fairené, fariné, farinier blanc, ferné, fernet, ferney, gros blanc, menu blanc, peut blanc, pivoine, plant de Sacy, plant d´Essert, sassy, souche, weissklemmer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sacy_(cépage)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sacy_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tressallier est un cépage indigène du vignoble de la région de Saint-Pourçain-sur-Sioule, dans l'Allier, considéré comme un cultivar particulier du sacy.
 De nombreuses orthographes sont possibles mais la plus courante et celle qui figure sur les textes officiels est "tressalier".
